--- a/5_Testing Documentation/praktikum/TestScenario_sepulsacom.xlsx
+++ b/5_Testing Documentation/praktikum/TestScenario_sepulsacom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Kuliah Semester 6\Studi Independen\qe_daniel-yogatama-maydiputra\5_Testing Documentation\praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17CB1D9E-6E9B-410A-ABBB-247AC3187329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0753FFE8-359E-4E50-8BA9-315E0DB9B93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6435" windowWidth="29040" windowHeight="15720" xr2:uid="{70C96A93-F658-4333-8A96-74E5D445B7E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70C96A93-F658-4333-8A96-74E5D445B7E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
   <si>
     <t>Login Functionality</t>
   </si>
@@ -172,17 +172,140 @@
     <t>Lupa Password Functionality</t>
   </si>
   <si>
-    <t>Email Valid</t>
-  </si>
-  <si>
     <t>Email INVALID</t>
+  </si>
+  <si>
+    <t>VERIFIKASI bahwa user dapat melakukan navigasi pada semua pilihan produk</t>
+  </si>
+  <si>
+    <t>VERIFIKASI bahwa setiap link menuju ke halaman yang sesuai (produk pulsa apabila di klik menuju ke halaman pulsa)</t>
+  </si>
+  <si>
+    <t>Untuk Kategori Telekomunikasi (Pulsa, Paket Data, Pascabayar, Telkom &amp; Indihome)</t>
+  </si>
+  <si>
+    <t>Untuk BPJS</t>
+  </si>
+  <si>
+    <t>Untuk Listrik PLN</t>
+  </si>
+  <si>
+    <t>ID Pelanggan VALID</t>
+  </si>
+  <si>
+    <t>Email VALID</t>
+  </si>
+  <si>
+    <t>Nomor Handphone VALID</t>
+  </si>
+  <si>
+    <t>Nomor Handphone INVALID</t>
+  </si>
+  <si>
+    <t>Nomor Peserta VALID</t>
+  </si>
+  <si>
+    <t>Nomor Peserta INVALID</t>
+  </si>
+  <si>
+    <t>ID Pelanggan VALID DAN Nomor Handphone VALID</t>
+  </si>
+  <si>
+    <t>ID Pelanggan VALID DAN Nomor Handphone INVALID</t>
+  </si>
+  <si>
+    <t>ID Pelanggan INVALID DAN Nomor Handphone VALID</t>
+  </si>
+  <si>
+    <t>ID Pelanggan INVALID DAN Nomor Handphone INVALID</t>
+  </si>
+  <si>
+    <t>Untuk PDAM</t>
+  </si>
+  <si>
+    <t>Nomor Pelanggan VALID DAN Wilayah VALID</t>
+  </si>
+  <si>
+    <t>Nomor Pelanggan VALID DAN Wilayah INVALID</t>
+  </si>
+  <si>
+    <t>Nomor Pelanggan INVALID DAN Wilayah VALID</t>
+  </si>
+  <si>
+    <t>Nomor Pelanggan INVALID DAN Wilayah INVALID</t>
+  </si>
+  <si>
+    <t>Untuk Internet dan TV Kabel, Bayar Cicilan, Gas, Asuransi</t>
+  </si>
+  <si>
+    <t>ID Pelanggan INVALID</t>
+  </si>
+  <si>
+    <t>Nomor Kartu Kredit VALID</t>
+  </si>
+  <si>
+    <t>Nomor Kartu Kredit INVALID</t>
+  </si>
+  <si>
+    <t>Untuk Kartu Kredit</t>
+  </si>
+  <si>
+    <t>Kota VALID DAN Tahun Pajak VALID DAN Nomor Objek Pajak VALID</t>
+  </si>
+  <si>
+    <t>Kota VALID DAN Tahun Pajak VALID DAN Nomor Objek Pajak INVALID</t>
+  </si>
+  <si>
+    <t>Kota VALID DAN Tahun Pajak INVALID DAN Nomor Objek Pajak VALID</t>
+  </si>
+  <si>
+    <t>Kota VALID DAN Tahun Pajak INVALID DAN Nomor Objek Pajak INVALID</t>
+  </si>
+  <si>
+    <t>Kota INVALID DAN Tahun Pajak VALID DAN Nomor Objek Pajak VALID</t>
+  </si>
+  <si>
+    <t>Kota INVALID DAN Tahun Pajak VALID DAN Nomor Objek Pajak INVALID</t>
+  </si>
+  <si>
+    <t>Kota INVALID DAN Tahun Pajak INVALID DAN Nomor Objek Pajak VALID</t>
+  </si>
+  <si>
+    <t>Kota INVALID DAN Tahun Pajak INVALID DAN Nomor Objek Pajak INVALID</t>
+  </si>
+  <si>
+    <t>Form Filling Functionality</t>
+  </si>
+  <si>
+    <t>Untuk PBB</t>
+  </si>
+  <si>
+    <t>Untuk Properti</t>
+  </si>
+  <si>
+    <t>Nama Properti VALID DAN Nomor Pelanggan VALID</t>
+  </si>
+  <si>
+    <t>Nama Properti VALID DAN Nomor Pelanggan INVALID</t>
+  </si>
+  <si>
+    <t>Nama Properti INVALID DAN Nomor Pelanggan VALID</t>
+  </si>
+  <si>
+    <t>Nama Properti INVALID DAN Nomor Pelanggan INVALID</t>
+  </si>
+  <si>
+    <t>Email VALID DAN Nomor Handphone VALID DAN Kredivo</t>
+  </si>
+  <si>
+    <t>Email VALID DAN Nomor Handphone INVALID DAN Kredivo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +315,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,22 +346,198 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -542,27 +847,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A4347C-4DF2-43A3-846D-B3D69746BE5D}">
-  <dimension ref="A2:B43"/>
+  <dimension ref="A2:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -629,14 +934,14 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -767,21 +1072,21 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -789,32 +1094,422 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="14">
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A63:B63"/>
     <mergeCell ref="A13:B14"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="A32:B33"/>
     <mergeCell ref="A37:B38"/>
+    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A34:A35">
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:A40 A43">
+    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:A49">
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:A45">
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:A55">
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:A61 A63">
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:A65">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:A69">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A79">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:A85">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88:A91">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/5_Testing Documentation/praktikum/TestScenario_sepulsacom.xlsx
+++ b/5_Testing Documentation/praktikum/TestScenario_sepulsacom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Kuliah Semester 6\Studi Independen\qe_daniel-yogatama-maydiputra\5_Testing Documentation\praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0753FFE8-359E-4E50-8BA9-315E0DB9B93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A3F8E-2657-4451-8F15-4DAD16EAF4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70C96A93-F658-4333-8A96-74E5D445B7E0}"/>
+    <workbookView xWindow="-4020" yWindow="-14280" windowWidth="17250" windowHeight="8865" xr2:uid="{70C96A93-F658-4333-8A96-74E5D445B7E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="134">
   <si>
     <t>Login Functionality</t>
   </si>
@@ -73,57 +73,9 @@
     <t>Test Case 9</t>
   </si>
   <si>
-    <t>Nomor Handphone Valid dan Password Valid</t>
-  </si>
-  <si>
-    <t>Nomor Handphone Valid dan Password Invalid</t>
-  </si>
-  <si>
-    <t>Nomor Handphone Invalid dan Password Valid</t>
-  </si>
-  <si>
-    <t>Nomor Handphone Invalid dan Password Invalid</t>
-  </si>
-  <si>
-    <t>Email Valid dan Password Valid</t>
-  </si>
-  <si>
-    <t>Email Valid dan Password Invalid</t>
-  </si>
-  <si>
-    <t>Email Invalid dan Password Valid</t>
-  </si>
-  <si>
-    <t>Email Invalid dan Password Invalid</t>
-  </si>
-  <si>
     <t>Create New Account Functionality (Daftar)</t>
   </si>
   <si>
-    <t>Nama Lengkap VALID DAN Email VALID DAN Nomor Handphone VALID DAN Password VALID</t>
-  </si>
-  <si>
-    <t>Nama Lengkap VALID DAN Email VALID DAN Nomor Handphone VALID DAN Password INVALID</t>
-  </si>
-  <si>
-    <t>Nama Lengkap VALID DAN Email VALID DAN Nomor Handphone INVALID DAN Password VALID</t>
-  </si>
-  <si>
-    <t>Nama Lengkap VALID DAN Email VALID DAN Nomor Handphone INVALID DAN Password INVALID</t>
-  </si>
-  <si>
-    <t>Nama Lengkap VALID DAN Email INVALID DAN Nomor Handphone INVALID DAN Password VALID</t>
-  </si>
-  <si>
-    <t>Nama Lengkap VALID DAN Email INVALID DAN Nomor Handphone INVALID DAN Password INVALID</t>
-  </si>
-  <si>
-    <t>Nama Lengkap VALID DAN Email INVALID DAN Nomor Handphone VALID DAN Password VALID</t>
-  </si>
-  <si>
-    <t>Nama Lengkap VALID DAN Email INVALID DAN Nomor Handphone VALID DAN Password INVALID</t>
-  </si>
-  <si>
     <t>Test Case 10</t>
   </si>
   <si>
@@ -145,42 +97,9 @@
     <t>Test Case 16</t>
   </si>
   <si>
-    <t>Nama Lengkap INVALID DAN Email VALID DAN Nomor Handphone VALID DAN Password VALID</t>
-  </si>
-  <si>
-    <t>Nama Lengkap INVALID DAN Email VALID DAN Nomor Handphone VALID DAN Password INVALID</t>
-  </si>
-  <si>
-    <t>Nama Lengkap INVALID DAN Email VALID DAN Nomor Handphone INVALID DAN Password VALID</t>
-  </si>
-  <si>
-    <t>Nama Lengkap INVALID DAN Email VALID DAN Nomor Handphone INVALID DAN Password INVALID</t>
-  </si>
-  <si>
-    <t>Nama Lengkap INVALID DAN Email INVALID DAN Nomor Handphone VALID DAN Password VALID</t>
-  </si>
-  <si>
-    <t>Nama Lengkap INVALID DAN Email INVALID DAN Nomor Handphone VALID DAN Password INVALID</t>
-  </si>
-  <si>
-    <t>Nama Lengkap INVALID DAN Email INVALID DAN Nomor Handphone INVALID DAN Password VALID</t>
-  </si>
-  <si>
-    <t>Nama Lengkap INVALID DAN Email INVALID DAN Nomor Handphone INVALID DAN Password INVALID</t>
-  </si>
-  <si>
     <t>Lupa Password Functionality</t>
   </si>
   <si>
-    <t>Email INVALID</t>
-  </si>
-  <si>
-    <t>VERIFIKASI bahwa user dapat melakukan navigasi pada semua pilihan produk</t>
-  </si>
-  <si>
-    <t>VERIFIKASI bahwa setiap link menuju ke halaman yang sesuai (produk pulsa apabila di klik menuju ke halaman pulsa)</t>
-  </si>
-  <si>
     <t>Untuk Kategori Telekomunikasi (Pulsa, Paket Data, Pascabayar, Telkom &amp; Indihome)</t>
   </si>
   <si>
@@ -193,9 +112,6 @@
     <t>ID Pelanggan VALID</t>
   </si>
   <si>
-    <t>Email VALID</t>
-  </si>
-  <si>
     <t>Nomor Handphone VALID</t>
   </si>
   <si>
@@ -299,6 +215,228 @@
   </si>
   <si>
     <t>Email VALID DAN Nomor Handphone INVALID DAN Kredivo</t>
+  </si>
+  <si>
+    <t>Enter Nomor Handphone Valid dan Password Valid</t>
+  </si>
+  <si>
+    <t>Enter Nomor Handphone Valid dan Password Invalid</t>
+  </si>
+  <si>
+    <t>Enter Nomor Handphone Invalid dan Password Valid</t>
+  </si>
+  <si>
+    <t>Enter Nomor Handphone Invalid dan Password Invalid</t>
+  </si>
+  <si>
+    <t>Enter Email Valid dan Password Valid</t>
+  </si>
+  <si>
+    <t>Enter Email Valid dan Password Invalid</t>
+  </si>
+  <si>
+    <t>Enter Email Invalid dan Password Valid</t>
+  </si>
+  <si>
+    <t>Enter Email Invalid dan Password Invalid</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap VALID DAN Email VALID DAN Nomor Handphone VALID DAN Password VALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap VALID DAN Email VALID DAN Nomor Handphone VALID DAN Password INVALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap VALID DAN Email VALID DAN Nomor Handphone INVALID DAN Password VALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap VALID DAN Email VALID DAN Nomor Handphone INVALID DAN Password INVALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap VALID DAN Email INVALID DAN Nomor Handphone VALID DAN Password VALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap VALID DAN Email INVALID DAN Nomor Handphone VALID DAN Password INVALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap VALID DAN Email INVALID DAN Nomor Handphone INVALID DAN Password VALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap VALID DAN Email INVALID DAN Nomor Handphone INVALID DAN Password INVALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap INVALID DAN Email VALID DAN Nomor Handphone VALID DAN Password VALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap INVALID DAN Email VALID DAN Nomor Handphone VALID DAN Password INVALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap INVALID DAN Email VALID DAN Nomor Handphone INVALID DAN Password VALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap INVALID DAN Email VALID DAN Nomor Handphone INVALID DAN Password INVALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap INVALID DAN Email INVALID DAN Nomor Handphone VALID DAN Password VALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap INVALID DAN Email INVALID DAN Nomor Handphone VALID DAN Password INVALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap INVALID DAN Email INVALID DAN Nomor Handphone INVALID DAN Password VALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Lengkap INVALID DAN Email INVALID DAN Nomor Handphone INVALID DAN Password INVALID</t>
+  </si>
+  <si>
+    <t>Enter Email VALID</t>
+  </si>
+  <si>
+    <t>Enter Email INVALID</t>
+  </si>
+  <si>
+    <t>Press Pulsa</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Press Paket Data</t>
+  </si>
+  <si>
+    <t>Press Pasca Bayar</t>
+  </si>
+  <si>
+    <t>Press Telkom &amp; Indihome</t>
+  </si>
+  <si>
+    <t>Press BPJS Ketenagakerjaan</t>
+  </si>
+  <si>
+    <t>Press Listrik PLN</t>
+  </si>
+  <si>
+    <t>Press PDAM</t>
+  </si>
+  <si>
+    <t>Press Internet dan TV Kabel</t>
+  </si>
+  <si>
+    <t>Press BPJS Kesehatan</t>
+  </si>
+  <si>
+    <t>Press Bayar Cicilan</t>
+  </si>
+  <si>
+    <t>Press Kartu Kredit</t>
+  </si>
+  <si>
+    <t>Press PBB</t>
+  </si>
+  <si>
+    <t>Press Gas</t>
+  </si>
+  <si>
+    <t>Press Properti</t>
+  </si>
+  <si>
+    <t>Press Asuransi</t>
+  </si>
+  <si>
+    <t>Press Voucher Game</t>
+  </si>
+  <si>
+    <t>Press Voucher Deals</t>
+  </si>
+  <si>
+    <t>Press Voucher Edukasi</t>
+  </si>
+  <si>
+    <t>Press Voucher Streaming</t>
+  </si>
+  <si>
+    <t>Press Uang Elektronik</t>
+  </si>
+  <si>
+    <t>Press Sepulsa Berkah</t>
+  </si>
+  <si>
+    <t>Test Case 17</t>
+  </si>
+  <si>
+    <t>Test Case 18</t>
+  </si>
+  <si>
+    <t>Test Case 19</t>
+  </si>
+  <si>
+    <t>Test Case 20</t>
+  </si>
+  <si>
+    <t>Test Case 21</t>
+  </si>
+  <si>
+    <t>Page Pulsa</t>
+  </si>
+  <si>
+    <t>Page Paket Data</t>
+  </si>
+  <si>
+    <t>Page Pasca Bayar</t>
+  </si>
+  <si>
+    <t>PageTelkom &amp; Indihome</t>
+  </si>
+  <si>
+    <t>Page BPJS Ketenagakerjaan</t>
+  </si>
+  <si>
+    <t>Page Listrik PLN</t>
+  </si>
+  <si>
+    <t>Page PDAM</t>
+  </si>
+  <si>
+    <t>Page Internet dan TV Kabel</t>
+  </si>
+  <si>
+    <t>Page BPJS Kesehatan</t>
+  </si>
+  <si>
+    <t>Page Bayar Cicilan</t>
+  </si>
+  <si>
+    <t>Page Kartu Kredit</t>
+  </si>
+  <si>
+    <t>Page PBB</t>
+  </si>
+  <si>
+    <t>Page Gas</t>
+  </si>
+  <si>
+    <t>Page Properti</t>
+  </si>
+  <si>
+    <t>Page Asuransi</t>
+  </si>
+  <si>
+    <t>Page Voucher Game</t>
+  </si>
+  <si>
+    <t>Page Voucher Deals</t>
+  </si>
+  <si>
+    <t>Page Voucher Edukasi</t>
+  </si>
+  <si>
+    <t>Page Voucher Streaming</t>
+  </si>
+  <si>
+    <t>Page Uang Elektronik</t>
+  </si>
+  <si>
+    <t>Page Sepulsa Berkah</t>
   </si>
 </sst>
 </file>
@@ -348,20 +486,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,34 +985,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A4347C-4DF2-43A3-846D-B3D69746BE5D}">
-  <dimension ref="A2:B91"/>
+  <dimension ref="A2:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="2" max="2" width="98.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -882,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -890,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -898,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -906,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -914,7 +1051,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -922,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -930,25 +1067,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1"/>
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -956,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -964,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -972,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -980,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -988,7 +1125,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -996,7 +1133,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1004,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1012,503 +1149,721 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B63" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B64" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>3</v>
       </c>
-      <c r="B48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="3"/>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>3</v>
       </c>
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="3"/>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>75</v>
-      </c>
+      <c r="A76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" t="s">
-        <v>82</v>
-      </c>
+      <c r="A82" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" t="s">
-        <v>85</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="3"/>
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
+      <c r="A90" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A63:B63"/>
     <mergeCell ref="A13:B14"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="A32:B33"/>
     <mergeCell ref="A37:B38"/>
-    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A82:B82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A34:A35">
     <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:A40 A43">
-    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
+  <conditionalFormatting sqref="A67:A68">
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:A49">
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+  <conditionalFormatting sqref="A63:A64">
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:A45">
-    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
+  <conditionalFormatting sqref="A71:A74">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:A55">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  <conditionalFormatting sqref="A77:A80 A82">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A61 A63">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+  <conditionalFormatting sqref="A83:A84">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:A65">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  <conditionalFormatting sqref="A86">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="A87:A88">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:A69">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="A91:A98">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A79">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="A101:A104">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:A85">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A107:A110">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88:A91">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A62 A39:A59">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5_Testing Documentation/praktikum/TestScenario_sepulsacom.xlsx
+++ b/5_Testing Documentation/praktikum/TestScenario_sepulsacom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Kuliah Semester 6\Studi Independen\qe_daniel-yogatama-maydiputra\5_Testing Documentation\praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A3F8E-2657-4451-8F15-4DAD16EAF4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64307F3-B301-4794-B1B0-27815A5B403F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4020" yWindow="-14280" windowWidth="17250" windowHeight="8865" xr2:uid="{70C96A93-F658-4333-8A96-74E5D445B7E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70C96A93-F658-4333-8A96-74E5D445B7E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="136">
   <si>
     <t>Login Functionality</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Choose Product Functionality</t>
   </si>
   <si>
-    <t>Payment Method Functionality</t>
-  </si>
-  <si>
     <t>Test Case 1</t>
   </si>
   <si>
@@ -109,87 +106,15 @@
     <t>Untuk Listrik PLN</t>
   </si>
   <si>
-    <t>ID Pelanggan VALID</t>
-  </si>
-  <si>
-    <t>Nomor Handphone VALID</t>
-  </si>
-  <si>
-    <t>Nomor Handphone INVALID</t>
-  </si>
-  <si>
-    <t>Nomor Peserta VALID</t>
-  </si>
-  <si>
-    <t>Nomor Peserta INVALID</t>
-  </si>
-  <si>
-    <t>ID Pelanggan VALID DAN Nomor Handphone VALID</t>
-  </si>
-  <si>
-    <t>ID Pelanggan VALID DAN Nomor Handphone INVALID</t>
-  </si>
-  <si>
-    <t>ID Pelanggan INVALID DAN Nomor Handphone VALID</t>
-  </si>
-  <si>
-    <t>ID Pelanggan INVALID DAN Nomor Handphone INVALID</t>
-  </si>
-  <si>
     <t>Untuk PDAM</t>
   </si>
   <si>
-    <t>Nomor Pelanggan VALID DAN Wilayah VALID</t>
-  </si>
-  <si>
-    <t>Nomor Pelanggan VALID DAN Wilayah INVALID</t>
-  </si>
-  <si>
-    <t>Nomor Pelanggan INVALID DAN Wilayah VALID</t>
-  </si>
-  <si>
-    <t>Nomor Pelanggan INVALID DAN Wilayah INVALID</t>
-  </si>
-  <si>
     <t>Untuk Internet dan TV Kabel, Bayar Cicilan, Gas, Asuransi</t>
   </si>
   <si>
-    <t>ID Pelanggan INVALID</t>
-  </si>
-  <si>
-    <t>Nomor Kartu Kredit VALID</t>
-  </si>
-  <si>
-    <t>Nomor Kartu Kredit INVALID</t>
-  </si>
-  <si>
     <t>Untuk Kartu Kredit</t>
   </si>
   <si>
-    <t>Kota VALID DAN Tahun Pajak VALID DAN Nomor Objek Pajak VALID</t>
-  </si>
-  <si>
-    <t>Kota VALID DAN Tahun Pajak VALID DAN Nomor Objek Pajak INVALID</t>
-  </si>
-  <si>
-    <t>Kota VALID DAN Tahun Pajak INVALID DAN Nomor Objek Pajak VALID</t>
-  </si>
-  <si>
-    <t>Kota VALID DAN Tahun Pajak INVALID DAN Nomor Objek Pajak INVALID</t>
-  </si>
-  <si>
-    <t>Kota INVALID DAN Tahun Pajak VALID DAN Nomor Objek Pajak VALID</t>
-  </si>
-  <si>
-    <t>Kota INVALID DAN Tahun Pajak VALID DAN Nomor Objek Pajak INVALID</t>
-  </si>
-  <si>
-    <t>Kota INVALID DAN Tahun Pajak INVALID DAN Nomor Objek Pajak VALID</t>
-  </si>
-  <si>
-    <t>Kota INVALID DAN Tahun Pajak INVALID DAN Nomor Objek Pajak INVALID</t>
-  </si>
-  <si>
     <t>Form Filling Functionality</t>
   </si>
   <si>
@@ -199,24 +124,6 @@
     <t>Untuk Properti</t>
   </si>
   <si>
-    <t>Nama Properti VALID DAN Nomor Pelanggan VALID</t>
-  </si>
-  <si>
-    <t>Nama Properti VALID DAN Nomor Pelanggan INVALID</t>
-  </si>
-  <si>
-    <t>Nama Properti INVALID DAN Nomor Pelanggan VALID</t>
-  </si>
-  <si>
-    <t>Nama Properti INVALID DAN Nomor Pelanggan INVALID</t>
-  </si>
-  <si>
-    <t>Email VALID DAN Nomor Handphone VALID DAN Kredivo</t>
-  </si>
-  <si>
-    <t>Email VALID DAN Nomor Handphone INVALID DAN Kredivo</t>
-  </si>
-  <si>
     <t>Enter Nomor Handphone Valid dan Password Valid</t>
   </si>
   <si>
@@ -437,6 +344,105 @@
   </si>
   <si>
     <t>Page Sepulsa Berkah</t>
+  </si>
+  <si>
+    <t>Enter Nomor Handphone VALID DAN Kredivo</t>
+  </si>
+  <si>
+    <t>Enter Nomor Handphone VALID</t>
+  </si>
+  <si>
+    <t>Enter Nomor Handphone INVALID</t>
+  </si>
+  <si>
+    <t>Enter Nomor Peserta VALID</t>
+  </si>
+  <si>
+    <t>Enter Nomor Peserta INVALID</t>
+  </si>
+  <si>
+    <t>Enter ID Pelanggan VALID DAN Nomor Handphone VALID</t>
+  </si>
+  <si>
+    <t>Enter ID Pelanggan VALID DAN Nomor Handphone INVALID</t>
+  </si>
+  <si>
+    <t>Enter ID Pelanggan INVALID DAN Nomor Handphone VALID</t>
+  </si>
+  <si>
+    <t>Enter ID Pelanggan INVALID DAN Nomor Handphone INVALID</t>
+  </si>
+  <si>
+    <t>Enter Nomor Pelanggan VALID DAN Wilayah VALID</t>
+  </si>
+  <si>
+    <t>Enter Nomor Pelanggan VALID DAN Wilayah INVALID</t>
+  </si>
+  <si>
+    <t>Enter Nomor Pelanggan INVALID DAN Wilayah VALID</t>
+  </si>
+  <si>
+    <t>Enter Nomor Pelanggan INVALID DAN Wilayah INVALID</t>
+  </si>
+  <si>
+    <t>Enter ID Pelanggan VALID</t>
+  </si>
+  <si>
+    <t>Enter ID Pelanggan INVALID</t>
+  </si>
+  <si>
+    <t>Enter Nomor Kartu Kredit VALID</t>
+  </si>
+  <si>
+    <t>Enter Nomor Kartu Kredit INVALID</t>
+  </si>
+  <si>
+    <t>Enter Kota VALID DAN Tahun Pajak VALID DAN Nomor Objek Pajak VALID</t>
+  </si>
+  <si>
+    <t>Enter Kota VALID DAN Tahun Pajak VALID DAN Nomor Objek Pajak INVALID</t>
+  </si>
+  <si>
+    <t>Enter Kota VALID DAN Tahun Pajak INVALID DAN Nomor Objek Pajak VALID</t>
+  </si>
+  <si>
+    <t>Enter Kota VALID DAN Tahun Pajak INVALID DAN Nomor Objek Pajak INVALID</t>
+  </si>
+  <si>
+    <t>Enter Kota INVALID DAN Tahun Pajak VALID DAN Nomor Objek Pajak VALID</t>
+  </si>
+  <si>
+    <t>Enter Kota INVALID DAN Tahun Pajak VALID DAN Nomor Objek Pajak INVALID</t>
+  </si>
+  <si>
+    <t>Enter Kota INVALID DAN Tahun Pajak INVALID DAN Nomor Objek Pajak VALID</t>
+  </si>
+  <si>
+    <t>Enter Kota INVALID DAN Tahun Pajak INVALID DAN Nomor Objek Pajak INVALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Properti VALID DAN Nomor Pelanggan VALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Properti VALID DAN Nomor Pelanggan INVALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Properti INVALID DAN Nomor Pelanggan VALID</t>
+  </si>
+  <si>
+    <t>Enter Nama Properti INVALID DAN Nomor Pelanggan INVALID</t>
+  </si>
+  <si>
+    <t>Buy Pulsa Payment Method Functionality</t>
+  </si>
+  <si>
+    <t>Enter Nomor Handphone INVALID DAN Kredivo</t>
+  </si>
+  <si>
+    <t>Email Nomor Handphone VALID DAN Gopay</t>
+  </si>
+  <si>
+    <t>Email Nomor Handphone INVALID DAN Gopay</t>
   </si>
 </sst>
 </file>
@@ -489,16 +495,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,7 +993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A4347C-4DF2-43A3-846D-B3D69746BE5D}">
   <dimension ref="A2:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -997,485 +1005,485 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5"/>
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1483,31 +1491,31 @@
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="4"/>
+      <c r="A61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="4"/>
+      <c r="A62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1515,294 +1523,295 @@
       <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" s="3"/>
+      <c r="A66" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="3"/>
+      <c r="A70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" s="3"/>
+      <c r="A76" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B82" s="3"/>
+      <c r="A82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="5"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B86" s="3"/>
+      <c r="A86" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="5"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B90" s="3"/>
+      <c r="A90" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="5"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B100" s="3"/>
+      <c r="A100" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="3"/>
+      <c r="A106" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106" s="5"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A90:B90"/>
@@ -1812,6 +1821,11 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="A62:B62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A34:A35">

--- a/5_Testing Documentation/praktikum/TestScenario_sepulsacom.xlsx
+++ b/5_Testing Documentation/praktikum/TestScenario_sepulsacom.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Kuliah Semester 6\Studi Independen\qe_daniel-yogatama-maydiputra\5_Testing Documentation\praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D012121E-B11A-49B0-8E0D-ABDF1E9E4ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738DD605-4785-4E71-BD18-1CF69F4A5DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70C96A93-F658-4333-8A96-74E5D445B7E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="151">
   <si>
     <t>Login Functionality</t>
   </si>
@@ -479,6 +480,15 @@
   </si>
   <si>
     <t>Precondition</t>
+  </si>
+  <si>
+    <t>Succesfully Pay with Kredivo</t>
+  </si>
+  <si>
+    <t>Succesfully Pay with Gopay</t>
+  </si>
+  <si>
+    <t>Payment Can't be done</t>
   </si>
 </sst>
 </file>
@@ -533,16 +543,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A4347C-4DF2-43A3-846D-B3D69746BE5D}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116:C125"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1292,10 +1302,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -1761,8 +1771,8 @@
       <c r="C82" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -2188,7 +2198,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2216,6 +2226,9 @@
       <c r="B134" t="s">
         <v>74</v>
       </c>
+      <c r="C134" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
@@ -2224,6 +2237,9 @@
       <c r="B135" t="s">
         <v>104</v>
       </c>
+      <c r="C135" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
@@ -2232,6 +2248,9 @@
       <c r="B136" t="s">
         <v>105</v>
       </c>
+      <c r="C136" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
@@ -2239,6 +2258,9 @@
       </c>
       <c r="B137" t="s">
         <v>106</v>
+      </c>
+      <c r="C137" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2269,4 +2291,16 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3C6AC0-94CB-40A9-92A9-5C607BB8942F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/5_Testing Documentation/praktikum/TestScenario_sepulsacom.xlsx
+++ b/5_Testing Documentation/praktikum/TestScenario_sepulsacom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Kuliah Semester 6\Studi Independen\qe_daniel-yogatama-maydiputra\5_Testing Documentation\praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738DD605-4785-4E71-BD18-1CF69F4A5DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9187A0-BE28-44CF-86BC-619C686100E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70C96A93-F658-4333-8A96-74E5D445B7E0}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{70C96A93-F658-4333-8A96-74E5D445B7E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="295">
   <si>
     <t>Login Functionality</t>
   </si>
@@ -489,6 +489,438 @@
   </si>
   <si>
     <t>Payment Can't be done</t>
+  </si>
+  <si>
+    <t>TestID</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Test Title</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Test Step</t>
+  </si>
+  <si>
+    <t>Planned Date</t>
+  </si>
+  <si>
+    <t>Execution Date</t>
+  </si>
+  <si>
+    <t>Satuan</t>
+  </si>
+  <si>
+    <t>Puluhan</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Satu</t>
+  </si>
+  <si>
+    <t>Run Program</t>
+  </si>
+  <si>
+    <t>Dua</t>
+  </si>
+  <si>
+    <t>Tiga</t>
+  </si>
+  <si>
+    <t>Empat</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Enam</t>
+  </si>
+  <si>
+    <t>Tujuh</t>
+  </si>
+  <si>
+    <t>Delapan</t>
+  </si>
+  <si>
+    <t>Sembilan</t>
+  </si>
+  <si>
+    <t>Nol</t>
+  </si>
+  <si>
+    <t>Sepuluh</t>
+  </si>
+  <si>
+    <t>Sebelas</t>
+  </si>
+  <si>
+    <t>Dua Belas</t>
+  </si>
+  <si>
+    <t>Tiga Belas</t>
+  </si>
+  <si>
+    <t>Empat Belas</t>
+  </si>
+  <si>
+    <t>Lima Belas</t>
+  </si>
+  <si>
+    <t>Enam Belas</t>
+  </si>
+  <si>
+    <t>Tujuh Belas</t>
+  </si>
+  <si>
+    <t>Delapan Belas</t>
+  </si>
+  <si>
+    <t>Sembilan Belas</t>
+  </si>
+  <si>
+    <t>Dua Puluh</t>
+  </si>
+  <si>
+    <t>Dua Puluh Satu</t>
+  </si>
+  <si>
+    <t>Dua Puluh Dua</t>
+  </si>
+  <si>
+    <t>Dua Puluh Tiga</t>
+  </si>
+  <si>
+    <t>Dua Puluh Empat</t>
+  </si>
+  <si>
+    <t>Dua Puluh Lima</t>
+  </si>
+  <si>
+    <t>Dua Puluh Enam</t>
+  </si>
+  <si>
+    <t>Dua Puluh Tujuh</t>
+  </si>
+  <si>
+    <t>Dua Puluh Delapan</t>
+  </si>
+  <si>
+    <t>Dua Puluh Sembilan</t>
+  </si>
+  <si>
+    <t>Tiga Puluh</t>
+  </si>
+  <si>
+    <t>Tiga Puluh Satu</t>
+  </si>
+  <si>
+    <t>Tiga Puluh Dua</t>
+  </si>
+  <si>
+    <t>Tiga Puluh Tiga</t>
+  </si>
+  <si>
+    <t>Tiga Puluh Empat</t>
+  </si>
+  <si>
+    <t>Tiga Puluh Lima</t>
+  </si>
+  <si>
+    <t>Tiga Puluh Enam</t>
+  </si>
+  <si>
+    <t>Tiga Puluh Tujuh</t>
+  </si>
+  <si>
+    <t>Tiga Puluh Delapan</t>
+  </si>
+  <si>
+    <t>Tiga Puluh Sembilan</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>"satu"</t>
+  </si>
+  <si>
+    <t>Fill input</t>
+  </si>
+  <si>
+    <t>Error (expect int not string)</t>
+  </si>
+  <si>
+    <t>input one word</t>
+  </si>
+  <si>
+    <t>input one char</t>
+  </si>
+  <si>
+    <t>"a"</t>
+  </si>
+  <si>
+    <t>Error (expect int not char)</t>
+  </si>
+  <si>
+    <t>Wrong Input Data Type</t>
+  </si>
+  <si>
+    <t>input one symbol</t>
+  </si>
+  <si>
+    <t>"!"</t>
+  </si>
+  <si>
+    <t>Error (expect int not symbol)</t>
+  </si>
+  <si>
+    <t>Ribuan</t>
+  </si>
+  <si>
+    <t>Puluhan Ribu</t>
+  </si>
+  <si>
+    <t>Ratusan Ribu</t>
+  </si>
+  <si>
+    <t>Jutaan</t>
+  </si>
+  <si>
+    <t>Puluhan Juta</t>
+  </si>
+  <si>
+    <t>Ratusan Juta</t>
+  </si>
+  <si>
+    <t>Milyar</t>
+  </si>
+  <si>
+    <t>Ratusan</t>
+  </si>
+  <si>
+    <t>Input 0 upfront</t>
+  </si>
+  <si>
+    <t>input number with 0 as first character</t>
+  </si>
+  <si>
+    <t>200092740</t>
+  </si>
+  <si>
+    <t>200182370</t>
+  </si>
+  <si>
+    <t>201284720</t>
+  </si>
+  <si>
+    <t>291441020</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Empat Puluh</t>
+  </si>
+  <si>
+    <t>Empat Puluh Satu</t>
+  </si>
+  <si>
+    <t>Empat Puluh Dua</t>
+  </si>
+  <si>
+    <t>Empat Puluh Tiga</t>
+  </si>
+  <si>
+    <t>Empat Puluh Empat</t>
+  </si>
+  <si>
+    <t>Empat Puluh Lima</t>
+  </si>
+  <si>
+    <t>Empat Puluh Enam</t>
+  </si>
+  <si>
+    <t>Empat Puluh Tujuh</t>
+  </si>
+  <si>
+    <t>Empat Puluh Delapan</t>
+  </si>
+  <si>
+    <t>Empat Puluh Sembilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lima Puluh </t>
+  </si>
+  <si>
+    <t>Lima Puluh Satu</t>
+  </si>
+  <si>
+    <t>Lima Puluh Dua</t>
+  </si>
+  <si>
+    <t>Lima Puluh Tiga</t>
+  </si>
+  <si>
+    <t>Lima Puluh Empat</t>
+  </si>
+  <si>
+    <t>Lima Puluh Lima</t>
+  </si>
+  <si>
+    <t>Lima Puluh Enam</t>
+  </si>
+  <si>
+    <t>Lima Puluh Tujuh</t>
+  </si>
+  <si>
+    <t>Lima Puluh Delapan</t>
+  </si>
+  <si>
+    <t>Lima Puluh Sembilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enam Puluh </t>
+  </si>
+  <si>
+    <t>Enam Puluh Satu</t>
+  </si>
+  <si>
+    <t>Enam Puluh Dua</t>
+  </si>
+  <si>
+    <t>Enam Puluh Tiga</t>
+  </si>
+  <si>
+    <t>Enam Puluh Empat</t>
+  </si>
+  <si>
+    <t>Enam Puluh Lima</t>
+  </si>
+  <si>
+    <t>Enam Puluh Enam</t>
+  </si>
+  <si>
+    <t>Enam Puluh Tujuh</t>
+  </si>
+  <si>
+    <t>Enam Puluh Delapan</t>
+  </si>
+  <si>
+    <t>Enam Puluh Sembilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tujuh Puluh </t>
+  </si>
+  <si>
+    <t>Tujuh Puluh Satu</t>
+  </si>
+  <si>
+    <t>Tujuh Puluh Dua</t>
+  </si>
+  <si>
+    <t>Tujuh Puluh Tiga</t>
+  </si>
+  <si>
+    <t>Tujuh Puluh Empat</t>
+  </si>
+  <si>
+    <t>Tujuh Puluh Lima</t>
+  </si>
+  <si>
+    <t>Tujuh Puluh Enam</t>
+  </si>
+  <si>
+    <t>Tujuh Puluh Tujuh</t>
+  </si>
+  <si>
+    <t>Tujuh Puluh Delapan</t>
+  </si>
+  <si>
+    <t>Tujuh Puluh Sembilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delapan Puluh </t>
+  </si>
+  <si>
+    <t>Delapan Puluh Satu</t>
+  </si>
+  <si>
+    <t>Delapan Puluh Dua</t>
+  </si>
+  <si>
+    <t>Delapan Puluh Tiga</t>
+  </si>
+  <si>
+    <t>Delapan Puluh Empat</t>
+  </si>
+  <si>
+    <t>Delapan Puluh Lima</t>
+  </si>
+  <si>
+    <t>Delapan Puluh Enam</t>
+  </si>
+  <si>
+    <t>Delapan Puluh Tujuh</t>
+  </si>
+  <si>
+    <t>Delapan Puluh Delapan</t>
+  </si>
+  <si>
+    <t>Delapan Puluh Sembilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sembilan Puluh </t>
+  </si>
+  <si>
+    <t>Sembilan Puluh Satu</t>
+  </si>
+  <si>
+    <t>Sembilan Puluh Dua</t>
+  </si>
+  <si>
+    <t>Sembilan Puluh Tiga</t>
+  </si>
+  <si>
+    <t>Sembilan Puluh Empat</t>
+  </si>
+  <si>
+    <t>Sembilan Puluh Lima</t>
+  </si>
+  <si>
+    <t>Sembilan Puluh Enam</t>
+  </si>
+  <si>
+    <t>Sembilan Puluh Tujuh</t>
+  </si>
+  <si>
+    <t>Sembilan Puluh Delapan</t>
+  </si>
+  <si>
+    <t>Sembilan Puluh Sembilan</t>
+  </si>
+  <si>
+    <t>Seratus</t>
+  </si>
+  <si>
+    <t>Seribu Dua Ratus Lima Puluh Tiga</t>
+  </si>
+  <si>
+    <t>Sembilan Ribu Dua Ratus Empat Puluh Sembilan</t>
+  </si>
+  <si>
+    <t>Sembilan Ribu Duaratus Tujuh Puluh Empat</t>
+  </si>
+  <si>
+    <t>Tiga Puluh Tiga Ribu Tiga Ratus Tiga Puluh Tiga</t>
   </si>
 </sst>
 </file>
@@ -536,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -553,6 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A4347C-4DF2-43A3-846D-B3D69746BE5D}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2295,12 +2728,4691 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3C6AC0-94CB-40A9-92A9-5C607BB8942F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L425"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35">
+        <v>33</v>
+      </c>
+      <c r="G35" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
+        <v>205</v>
+      </c>
+      <c r="H38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40">
+        <v>38</v>
+      </c>
+      <c r="G40" t="s">
+        <v>205</v>
+      </c>
+      <c r="H40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42">
+        <v>40</v>
+      </c>
+      <c r="G42" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s">
+        <v>205</v>
+      </c>
+      <c r="H44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45">
+        <v>43</v>
+      </c>
+      <c r="G45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46">
+        <v>44</v>
+      </c>
+      <c r="G46" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47">
+        <v>45</v>
+      </c>
+      <c r="G47" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" t="s">
+        <v>161</v>
+      </c>
+      <c r="F48">
+        <v>46</v>
+      </c>
+      <c r="G48" t="s">
+        <v>205</v>
+      </c>
+      <c r="H48" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49">
+        <v>47</v>
+      </c>
+      <c r="G49" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50">
+        <v>48</v>
+      </c>
+      <c r="G50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51">
+        <v>49</v>
+      </c>
+      <c r="G51" t="s">
+        <v>205</v>
+      </c>
+      <c r="H51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" t="s">
+        <v>161</v>
+      </c>
+      <c r="F52">
+        <v>50</v>
+      </c>
+      <c r="G52" t="s">
+        <v>205</v>
+      </c>
+      <c r="H52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53">
+        <v>51</v>
+      </c>
+      <c r="G53" t="s">
+        <v>205</v>
+      </c>
+      <c r="H53" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54">
+        <v>52</v>
+      </c>
+      <c r="G54" t="s">
+        <v>205</v>
+      </c>
+      <c r="H54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55">
+        <v>53</v>
+      </c>
+      <c r="G55" t="s">
+        <v>205</v>
+      </c>
+      <c r="H55" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56">
+        <v>54</v>
+      </c>
+      <c r="G56" t="s">
+        <v>205</v>
+      </c>
+      <c r="H56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57">
+        <v>55</v>
+      </c>
+      <c r="G57" t="s">
+        <v>205</v>
+      </c>
+      <c r="H57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58">
+        <v>56</v>
+      </c>
+      <c r="G58" t="s">
+        <v>205</v>
+      </c>
+      <c r="H58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" t="s">
+        <v>161</v>
+      </c>
+      <c r="F59">
+        <v>57</v>
+      </c>
+      <c r="G59" t="s">
+        <v>205</v>
+      </c>
+      <c r="H59" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60">
+        <v>58</v>
+      </c>
+      <c r="G60" t="s">
+        <v>205</v>
+      </c>
+      <c r="H60" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61">
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" t="s">
+        <v>161</v>
+      </c>
+      <c r="F61">
+        <v>59</v>
+      </c>
+      <c r="G61" t="s">
+        <v>205</v>
+      </c>
+      <c r="H61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" t="s">
+        <v>161</v>
+      </c>
+      <c r="F62">
+        <v>60</v>
+      </c>
+      <c r="G62" t="s">
+        <v>205</v>
+      </c>
+      <c r="H62" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63">
+        <v>61</v>
+      </c>
+      <c r="G63" t="s">
+        <v>205</v>
+      </c>
+      <c r="H63" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64">
+        <v>62</v>
+      </c>
+      <c r="D64" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64">
+        <v>62</v>
+      </c>
+      <c r="G64" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" t="s">
+        <v>161</v>
+      </c>
+      <c r="F65">
+        <v>63</v>
+      </c>
+      <c r="G65" t="s">
+        <v>205</v>
+      </c>
+      <c r="H65" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66">
+        <v>64</v>
+      </c>
+      <c r="G66" t="s">
+        <v>205</v>
+      </c>
+      <c r="H66" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67">
+        <v>65</v>
+      </c>
+      <c r="G67" t="s">
+        <v>205</v>
+      </c>
+      <c r="H67" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" t="s">
+        <v>161</v>
+      </c>
+      <c r="F68">
+        <v>66</v>
+      </c>
+      <c r="G68" t="s">
+        <v>205</v>
+      </c>
+      <c r="H68" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69" t="s">
+        <v>161</v>
+      </c>
+      <c r="F69">
+        <v>67</v>
+      </c>
+      <c r="G69" t="s">
+        <v>205</v>
+      </c>
+      <c r="H69" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" t="s">
+        <v>161</v>
+      </c>
+      <c r="F70">
+        <v>68</v>
+      </c>
+      <c r="G70" t="s">
+        <v>205</v>
+      </c>
+      <c r="H70" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71">
+        <v>69</v>
+      </c>
+      <c r="D71" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71">
+        <v>69</v>
+      </c>
+      <c r="G71" t="s">
+        <v>205</v>
+      </c>
+      <c r="H71" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72">
+        <v>70</v>
+      </c>
+      <c r="D72" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72">
+        <v>70</v>
+      </c>
+      <c r="G72" t="s">
+        <v>205</v>
+      </c>
+      <c r="H72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73">
+        <v>71</v>
+      </c>
+      <c r="D73" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" t="s">
+        <v>161</v>
+      </c>
+      <c r="F73">
+        <v>71</v>
+      </c>
+      <c r="G73" t="s">
+        <v>205</v>
+      </c>
+      <c r="H73" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" t="s">
+        <v>161</v>
+      </c>
+      <c r="F74">
+        <v>72</v>
+      </c>
+      <c r="G74" t="s">
+        <v>205</v>
+      </c>
+      <c r="H74" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75">
+        <v>73</v>
+      </c>
+      <c r="G75" t="s">
+        <v>205</v>
+      </c>
+      <c r="H75" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" t="s">
+        <v>161</v>
+      </c>
+      <c r="F76">
+        <v>74</v>
+      </c>
+      <c r="G76" t="s">
+        <v>205</v>
+      </c>
+      <c r="H76" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77">
+        <v>75</v>
+      </c>
+      <c r="D77" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" t="s">
+        <v>161</v>
+      </c>
+      <c r="F77">
+        <v>75</v>
+      </c>
+      <c r="G77" t="s">
+        <v>205</v>
+      </c>
+      <c r="H77" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c r="C78">
+        <v>76</v>
+      </c>
+      <c r="D78" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" t="s">
+        <v>161</v>
+      </c>
+      <c r="F78">
+        <v>76</v>
+      </c>
+      <c r="G78" t="s">
+        <v>205</v>
+      </c>
+      <c r="H78" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79">
+        <v>77</v>
+      </c>
+      <c r="D79" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79" t="s">
+        <v>161</v>
+      </c>
+      <c r="F79">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s">
+        <v>205</v>
+      </c>
+      <c r="H79" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80">
+        <v>78</v>
+      </c>
+      <c r="D80" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" t="s">
+        <v>161</v>
+      </c>
+      <c r="F80">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s">
+        <v>205</v>
+      </c>
+      <c r="H80" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81">
+        <v>79</v>
+      </c>
+      <c r="D81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81">
+        <v>79</v>
+      </c>
+      <c r="G81" t="s">
+        <v>205</v>
+      </c>
+      <c r="H81" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82">
+        <v>80</v>
+      </c>
+      <c r="D82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" t="s">
+        <v>161</v>
+      </c>
+      <c r="F82">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s">
+        <v>205</v>
+      </c>
+      <c r="H82" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83">
+        <v>81</v>
+      </c>
+      <c r="D83" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" t="s">
+        <v>161</v>
+      </c>
+      <c r="F83">
+        <v>81</v>
+      </c>
+      <c r="G83" t="s">
+        <v>205</v>
+      </c>
+      <c r="H83" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84">
+        <v>82</v>
+      </c>
+      <c r="D84" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84">
+        <v>82</v>
+      </c>
+      <c r="G84" t="s">
+        <v>205</v>
+      </c>
+      <c r="H84" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85">
+        <v>83</v>
+      </c>
+      <c r="D85" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" t="s">
+        <v>161</v>
+      </c>
+      <c r="F85">
+        <v>83</v>
+      </c>
+      <c r="G85" t="s">
+        <v>205</v>
+      </c>
+      <c r="H85" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86">
+        <v>84</v>
+      </c>
+      <c r="D86" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86" t="s">
+        <v>161</v>
+      </c>
+      <c r="F86">
+        <v>84</v>
+      </c>
+      <c r="G86" t="s">
+        <v>205</v>
+      </c>
+      <c r="H86" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87">
+        <v>85</v>
+      </c>
+      <c r="D87" t="s">
+        <v>163</v>
+      </c>
+      <c r="E87" t="s">
+        <v>161</v>
+      </c>
+      <c r="F87">
+        <v>85</v>
+      </c>
+      <c r="G87" t="s">
+        <v>205</v>
+      </c>
+      <c r="H87" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88">
+        <v>86</v>
+      </c>
+      <c r="D88" t="s">
+        <v>163</v>
+      </c>
+      <c r="E88" t="s">
+        <v>161</v>
+      </c>
+      <c r="F88">
+        <v>86</v>
+      </c>
+      <c r="G88" t="s">
+        <v>205</v>
+      </c>
+      <c r="H88" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89">
+        <v>87</v>
+      </c>
+      <c r="D89" t="s">
+        <v>163</v>
+      </c>
+      <c r="E89" t="s">
+        <v>161</v>
+      </c>
+      <c r="F89">
+        <v>87</v>
+      </c>
+      <c r="G89" t="s">
+        <v>205</v>
+      </c>
+      <c r="H89" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c r="C90">
+        <v>88</v>
+      </c>
+      <c r="D90" t="s">
+        <v>163</v>
+      </c>
+      <c r="E90" t="s">
+        <v>161</v>
+      </c>
+      <c r="F90">
+        <v>88</v>
+      </c>
+      <c r="G90" t="s">
+        <v>205</v>
+      </c>
+      <c r="H90" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91">
+        <v>89</v>
+      </c>
+      <c r="D91" t="s">
+        <v>163</v>
+      </c>
+      <c r="E91" t="s">
+        <v>161</v>
+      </c>
+      <c r="F91">
+        <v>89</v>
+      </c>
+      <c r="G91" t="s">
+        <v>205</v>
+      </c>
+      <c r="H91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="C92">
+        <v>90</v>
+      </c>
+      <c r="D92" t="s">
+        <v>163</v>
+      </c>
+      <c r="E92" t="s">
+        <v>161</v>
+      </c>
+      <c r="F92">
+        <v>90</v>
+      </c>
+      <c r="G92" t="s">
+        <v>205</v>
+      </c>
+      <c r="H92" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="C93">
+        <v>91</v>
+      </c>
+      <c r="D93" t="s">
+        <v>163</v>
+      </c>
+      <c r="E93" t="s">
+        <v>161</v>
+      </c>
+      <c r="F93">
+        <v>91</v>
+      </c>
+      <c r="G93" t="s">
+        <v>205</v>
+      </c>
+      <c r="H93" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c r="C94">
+        <v>92</v>
+      </c>
+      <c r="D94" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F94">
+        <v>92</v>
+      </c>
+      <c r="G94" t="s">
+        <v>205</v>
+      </c>
+      <c r="H94" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95">
+        <v>93</v>
+      </c>
+      <c r="D95" t="s">
+        <v>163</v>
+      </c>
+      <c r="E95" t="s">
+        <v>161</v>
+      </c>
+      <c r="F95">
+        <v>93</v>
+      </c>
+      <c r="G95" t="s">
+        <v>205</v>
+      </c>
+      <c r="H95" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="C96">
+        <v>94</v>
+      </c>
+      <c r="D96" t="s">
+        <v>163</v>
+      </c>
+      <c r="E96" t="s">
+        <v>161</v>
+      </c>
+      <c r="F96">
+        <v>94</v>
+      </c>
+      <c r="G96" t="s">
+        <v>205</v>
+      </c>
+      <c r="H96" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c r="C97">
+        <v>95</v>
+      </c>
+      <c r="D97" t="s">
+        <v>163</v>
+      </c>
+      <c r="E97" t="s">
+        <v>161</v>
+      </c>
+      <c r="F97">
+        <v>95</v>
+      </c>
+      <c r="G97" t="s">
+        <v>205</v>
+      </c>
+      <c r="H97" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c r="C98">
+        <v>96</v>
+      </c>
+      <c r="D98" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98" t="s">
+        <v>161</v>
+      </c>
+      <c r="F98">
+        <v>96</v>
+      </c>
+      <c r="G98" t="s">
+        <v>205</v>
+      </c>
+      <c r="H98" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99">
+        <v>97</v>
+      </c>
+      <c r="D99" t="s">
+        <v>163</v>
+      </c>
+      <c r="E99" t="s">
+        <v>161</v>
+      </c>
+      <c r="F99">
+        <v>97</v>
+      </c>
+      <c r="G99" t="s">
+        <v>205</v>
+      </c>
+      <c r="H99" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100">
+        <v>98</v>
+      </c>
+      <c r="D100" t="s">
+        <v>163</v>
+      </c>
+      <c r="E100" t="s">
+        <v>161</v>
+      </c>
+      <c r="F100">
+        <v>98</v>
+      </c>
+      <c r="G100" t="s">
+        <v>205</v>
+      </c>
+      <c r="H100" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101">
+        <v>99</v>
+      </c>
+      <c r="D101" t="s">
+        <v>163</v>
+      </c>
+      <c r="E101" t="s">
+        <v>161</v>
+      </c>
+      <c r="F101">
+        <v>99</v>
+      </c>
+      <c r="G101" t="s">
+        <v>205</v>
+      </c>
+      <c r="H101" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="D102" t="s">
+        <v>163</v>
+      </c>
+      <c r="E102" t="s">
+        <v>161</v>
+      </c>
+      <c r="F102">
+        <v>100</v>
+      </c>
+      <c r="G102" t="s">
+        <v>205</v>
+      </c>
+      <c r="H102" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103">
+        <v>1253</v>
+      </c>
+      <c r="D103" t="s">
+        <v>163</v>
+      </c>
+      <c r="E103" t="s">
+        <v>161</v>
+      </c>
+      <c r="F103">
+        <v>1253</v>
+      </c>
+      <c r="G103" t="s">
+        <v>205</v>
+      </c>
+      <c r="H103" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104">
+        <v>9249</v>
+      </c>
+      <c r="D104" t="s">
+        <v>163</v>
+      </c>
+      <c r="E104" t="s">
+        <v>161</v>
+      </c>
+      <c r="F104">
+        <v>9249</v>
+      </c>
+      <c r="G104" t="s">
+        <v>205</v>
+      </c>
+      <c r="H104" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105">
+        <v>9274</v>
+      </c>
+      <c r="D105" t="s">
+        <v>163</v>
+      </c>
+      <c r="E105" t="s">
+        <v>161</v>
+      </c>
+      <c r="F105">
+        <v>9274</v>
+      </c>
+      <c r="G105" t="s">
+        <v>205</v>
+      </c>
+      <c r="H105" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c r="C106">
+        <v>8164</v>
+      </c>
+      <c r="D106" t="s">
+        <v>163</v>
+      </c>
+      <c r="E106" t="s">
+        <v>161</v>
+      </c>
+      <c r="F106">
+        <v>8164</v>
+      </c>
+      <c r="G106" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107">
+        <v>33333</v>
+      </c>
+      <c r="D107" t="s">
+        <v>163</v>
+      </c>
+      <c r="E107" t="s">
+        <v>161</v>
+      </c>
+      <c r="F107">
+        <v>33333</v>
+      </c>
+      <c r="G107" t="s">
+        <v>205</v>
+      </c>
+      <c r="H107" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108">
+        <v>84729</v>
+      </c>
+      <c r="D108" t="s">
+        <v>163</v>
+      </c>
+      <c r="E108" t="s">
+        <v>161</v>
+      </c>
+      <c r="F108">
+        <v>84729</v>
+      </c>
+      <c r="G108" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109">
+        <v>91874</v>
+      </c>
+      <c r="D109" t="s">
+        <v>163</v>
+      </c>
+      <c r="E109" t="s">
+        <v>161</v>
+      </c>
+      <c r="F109">
+        <v>91874</v>
+      </c>
+      <c r="G109" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>216</v>
+      </c>
+      <c r="C110">
+        <v>17429</v>
+      </c>
+      <c r="D110" t="s">
+        <v>163</v>
+      </c>
+      <c r="E110" t="s">
+        <v>161</v>
+      </c>
+      <c r="F110">
+        <v>17429</v>
+      </c>
+      <c r="G110" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111">
+        <v>65021</v>
+      </c>
+      <c r="D111" t="s">
+        <v>163</v>
+      </c>
+      <c r="E111" t="s">
+        <v>161</v>
+      </c>
+      <c r="F111">
+        <v>65021</v>
+      </c>
+      <c r="G111" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112">
+        <v>82742</v>
+      </c>
+      <c r="D112" t="s">
+        <v>163</v>
+      </c>
+      <c r="E112" t="s">
+        <v>161</v>
+      </c>
+      <c r="F112">
+        <v>82742</v>
+      </c>
+      <c r="G112" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>217</v>
+      </c>
+      <c r="C113">
+        <v>39248</v>
+      </c>
+      <c r="D113" t="s">
+        <v>163</v>
+      </c>
+      <c r="E113" t="s">
+        <v>161</v>
+      </c>
+      <c r="F113">
+        <v>39248</v>
+      </c>
+      <c r="G113" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>217</v>
+      </c>
+      <c r="C114">
+        <v>29472</v>
+      </c>
+      <c r="D114" t="s">
+        <v>163</v>
+      </c>
+      <c r="E114" t="s">
+        <v>161</v>
+      </c>
+      <c r="F114">
+        <v>29472</v>
+      </c>
+      <c r="G114" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>218</v>
+      </c>
+      <c r="C115">
+        <v>1000000</v>
+      </c>
+      <c r="D115" t="s">
+        <v>163</v>
+      </c>
+      <c r="E115" t="s">
+        <v>161</v>
+      </c>
+      <c r="F115">
+        <v>1000000</v>
+      </c>
+      <c r="G115" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116">
+        <v>2000001</v>
+      </c>
+      <c r="D116" t="s">
+        <v>163</v>
+      </c>
+      <c r="E116" t="s">
+        <v>161</v>
+      </c>
+      <c r="F116">
+        <v>2000001</v>
+      </c>
+      <c r="G116" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117">
+        <v>2000072</v>
+      </c>
+      <c r="D117" t="s">
+        <v>163</v>
+      </c>
+      <c r="E117" t="s">
+        <v>161</v>
+      </c>
+      <c r="F117">
+        <v>2000072</v>
+      </c>
+      <c r="G117" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>218</v>
+      </c>
+      <c r="C118">
+        <v>2000836</v>
+      </c>
+      <c r="D118" t="s">
+        <v>163</v>
+      </c>
+      <c r="E118" t="s">
+        <v>161</v>
+      </c>
+      <c r="F118">
+        <v>2000836</v>
+      </c>
+      <c r="G118" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119">
+        <v>20000000</v>
+      </c>
+      <c r="D119" t="s">
+        <v>163</v>
+      </c>
+      <c r="E119" t="s">
+        <v>161</v>
+      </c>
+      <c r="F119">
+        <v>20000000</v>
+      </c>
+      <c r="G119" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>219</v>
+      </c>
+      <c r="C120">
+        <v>20000004</v>
+      </c>
+      <c r="D120" t="s">
+        <v>163</v>
+      </c>
+      <c r="E120" t="s">
+        <v>161</v>
+      </c>
+      <c r="F120">
+        <v>20000004</v>
+      </c>
+      <c r="G120" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>219</v>
+      </c>
+      <c r="C121">
+        <v>20000035</v>
+      </c>
+      <c r="D121" t="s">
+        <v>163</v>
+      </c>
+      <c r="E121" t="s">
+        <v>161</v>
+      </c>
+      <c r="F121">
+        <v>20000035</v>
+      </c>
+      <c r="G121" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>219</v>
+      </c>
+      <c r="C122">
+        <v>20000726</v>
+      </c>
+      <c r="D122" t="s">
+        <v>163</v>
+      </c>
+      <c r="E122" t="s">
+        <v>161</v>
+      </c>
+      <c r="F122">
+        <v>20000726</v>
+      </c>
+      <c r="G122" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>220</v>
+      </c>
+      <c r="C123" t="s">
+        <v>225</v>
+      </c>
+      <c r="D123" t="s">
+        <v>163</v>
+      </c>
+      <c r="E123" t="s">
+        <v>161</v>
+      </c>
+      <c r="F123" t="s">
+        <v>225</v>
+      </c>
+      <c r="G123" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>220</v>
+      </c>
+      <c r="C124" t="s">
+        <v>226</v>
+      </c>
+      <c r="D124" t="s">
+        <v>163</v>
+      </c>
+      <c r="E124" t="s">
+        <v>161</v>
+      </c>
+      <c r="F124" t="s">
+        <v>226</v>
+      </c>
+      <c r="G124" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" t="s">
+        <v>227</v>
+      </c>
+      <c r="D125" t="s">
+        <v>163</v>
+      </c>
+      <c r="E125" t="s">
+        <v>161</v>
+      </c>
+      <c r="F125" t="s">
+        <v>227</v>
+      </c>
+      <c r="G125" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>220</v>
+      </c>
+      <c r="C126" t="s">
+        <v>228</v>
+      </c>
+      <c r="D126" t="s">
+        <v>163</v>
+      </c>
+      <c r="E126" t="s">
+        <v>161</v>
+      </c>
+      <c r="F126" t="s">
+        <v>228</v>
+      </c>
+      <c r="G126" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127">
+        <v>1000000000</v>
+      </c>
+      <c r="D127" t="s">
+        <v>163</v>
+      </c>
+      <c r="E127" t="s">
+        <v>161</v>
+      </c>
+      <c r="F127">
+        <v>1000000000</v>
+      </c>
+      <c r="G127" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>221</v>
+      </c>
+      <c r="C128">
+        <v>1000002000</v>
+      </c>
+      <c r="D128" t="s">
+        <v>163</v>
+      </c>
+      <c r="E128" t="s">
+        <v>161</v>
+      </c>
+      <c r="F128">
+        <v>1000002000</v>
+      </c>
+      <c r="G128" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>221</v>
+      </c>
+      <c r="C129">
+        <v>1100000000</v>
+      </c>
+      <c r="D129" t="s">
+        <v>163</v>
+      </c>
+      <c r="E129" t="s">
+        <v>161</v>
+      </c>
+      <c r="F129">
+        <v>1100000000</v>
+      </c>
+      <c r="G129" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C130" t="s">
+        <v>207</v>
+      </c>
+      <c r="D130" t="s">
+        <v>163</v>
+      </c>
+      <c r="E130" t="s">
+        <v>203</v>
+      </c>
+      <c r="F130" t="s">
+        <v>204</v>
+      </c>
+      <c r="G130" t="s">
+        <v>205</v>
+      </c>
+      <c r="H130" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c r="C131" t="s">
+        <v>208</v>
+      </c>
+      <c r="D131" t="s">
+        <v>163</v>
+      </c>
+      <c r="E131" t="s">
+        <v>203</v>
+      </c>
+      <c r="F131" t="s">
+        <v>209</v>
+      </c>
+      <c r="G131" t="s">
+        <v>205</v>
+      </c>
+      <c r="H131" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c r="C132" t="s">
+        <v>212</v>
+      </c>
+      <c r="D132" t="s">
+        <v>163</v>
+      </c>
+      <c r="E132" t="s">
+        <v>203</v>
+      </c>
+      <c r="F132" t="s">
+        <v>213</v>
+      </c>
+      <c r="G132" t="s">
+        <v>205</v>
+      </c>
+      <c r="H132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>223</v>
+      </c>
+      <c r="C133" t="s">
+        <v>224</v>
+      </c>
+      <c r="D133" t="s">
+        <v>163</v>
+      </c>
+      <c r="E133" t="s">
+        <v>203</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G133" t="s">
+        <v>205</v>
+      </c>
+      <c r="H133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B12:B101"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="B103:B106"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/5_Testing Documentation/praktikum/TestScenario_sepulsacom.xlsx
+++ b/5_Testing Documentation/praktikum/TestScenario_sepulsacom.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Kuliah Semester 6\Studi Independen\qe_daniel-yogatama-maydiputra\5_Testing Documentation\praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9187A0-BE28-44CF-86BC-619C686100E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B400359C-91CB-442E-8025-5D9A5B2BD3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{70C96A93-F658-4333-8A96-74E5D445B7E0}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{70C96A93-F658-4333-8A96-74E5D445B7E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="TC" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="390">
   <si>
     <t>Login Functionality</t>
   </si>
@@ -921,6 +922,291 @@
   </si>
   <si>
     <t>Tiga Puluh Tiga Ribu Tiga Ratus Tiga Puluh Tiga</t>
+  </si>
+  <si>
+    <t>Peluru</t>
+  </si>
+  <si>
+    <t>Roket</t>
+  </si>
+  <si>
+    <t>standby</t>
+  </si>
+  <si>
+    <t>press A Button</t>
+  </si>
+  <si>
+    <t>B btn only</t>
+  </si>
+  <si>
+    <t>press B Button</t>
+  </si>
+  <si>
+    <t>Roket ditembakkan</t>
+  </si>
+  <si>
+    <t>A single click</t>
+  </si>
+  <si>
+    <t>A hold</t>
+  </si>
+  <si>
+    <t>press &amp; hold A Button</t>
+  </si>
+  <si>
+    <t>Peluru ditembakkan (secara rapid fire)</t>
+  </si>
+  <si>
+    <t>Peluru ditembakkan (hanya 1 butir)</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>Panah Atas</t>
+  </si>
+  <si>
+    <t>press Panah atas</t>
+  </si>
+  <si>
+    <t>senjata bergerak 1 derajat ke atas</t>
+  </si>
+  <si>
+    <t>press &amp; hold Panah atas for 5 second</t>
+  </si>
+  <si>
+    <t>unpress Panah atas</t>
+  </si>
+  <si>
+    <t>Panah Bawah</t>
+  </si>
+  <si>
+    <t>press Panah Bawah</t>
+  </si>
+  <si>
+    <t>press &amp; hold Panah Bawah for 5 second</t>
+  </si>
+  <si>
+    <t>unpress Panah Bawah</t>
+  </si>
+  <si>
+    <t>senjata bergerak 1 derajat ke Bawah</t>
+  </si>
+  <si>
+    <t>senjata bergerak ke atas selama tombol ditekan</t>
+  </si>
+  <si>
+    <t>senjata bergerak ke bawah selama tombol ditekan</t>
+  </si>
+  <si>
+    <t>Panah Kanan</t>
+  </si>
+  <si>
+    <t>Panah Kiri</t>
+  </si>
+  <si>
+    <t>unpress Panah Kanan</t>
+  </si>
+  <si>
+    <t>press Panah Kanan</t>
+  </si>
+  <si>
+    <t>press &amp; hold Panah Kanan for 5 second</t>
+  </si>
+  <si>
+    <t>senjata bergerak 1 derajat ke kanan</t>
+  </si>
+  <si>
+    <t>senjata bergerak ke kanan selama tombol ditekan</t>
+  </si>
+  <si>
+    <t>press Panah Kiri</t>
+  </si>
+  <si>
+    <t>press &amp; hold Panah Kiri for 5 second</t>
+  </si>
+  <si>
+    <t>unpress Panah Kiri</t>
+  </si>
+  <si>
+    <t>senjata bergerak 1 derajat ke Kiri</t>
+  </si>
+  <si>
+    <t>senjata bergerak ke Kiri selama tombol ditekan</t>
+  </si>
+  <si>
+    <t>Atas Bawah</t>
+  </si>
+  <si>
+    <t>press &amp; hold Panah atas dan Panah Bawah selama 5 detik</t>
+  </si>
+  <si>
+    <t>senjata tidak melakukan pergerakan apapun</t>
+  </si>
+  <si>
+    <t>Kiri Kanan</t>
+  </si>
+  <si>
+    <t>press &amp; hold Panah kiri dan Panah kanan selama 5 detik</t>
+  </si>
+  <si>
+    <t>Atas Kanan</t>
+  </si>
+  <si>
+    <t>press &amp; hold Panah atas dan Panah kanan selama 5 detik</t>
+  </si>
+  <si>
+    <t>While Firing</t>
+  </si>
+  <si>
+    <t>Tombol A &amp; Panah Atas</t>
+  </si>
+  <si>
+    <t>press &amp; hold Panah atas terlebih dahulu, lalu press &amp; hold Tombol A tanpa melepas Panah atas</t>
+  </si>
+  <si>
+    <t>senjata melakukan pergerakan ke atas, tidak melakukan tembakan</t>
+  </si>
+  <si>
+    <t>Double Fire</t>
+  </si>
+  <si>
+    <t>A B</t>
+  </si>
+  <si>
+    <t>press A &amp; B together</t>
+  </si>
+  <si>
+    <t>senjata menembakkan peluru tunggal dan roket</t>
+  </si>
+  <si>
+    <t>A hold &amp; B</t>
+  </si>
+  <si>
+    <t>press &amp; hold A, press B together</t>
+  </si>
+  <si>
+    <t>senjata menembakkan peluru rapid fire dan roket</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>Tombol A &amp; Panah Bawah</t>
+  </si>
+  <si>
+    <t>Tombol A &amp; Panah Kiri</t>
+  </si>
+  <si>
+    <t>Tombol A &amp; Panah Kanan</t>
+  </si>
+  <si>
+    <t>press &amp; hold Panah bawah terlebih dahulu, lalu press &amp; hold Tombol A tanpa melepas Panah atas</t>
+  </si>
+  <si>
+    <t>press &amp; hold Panah kiri terlebih dahulu, lalu press &amp; hold Tombol A tanpa melepas Panah atas</t>
+  </si>
+  <si>
+    <t>press &amp; hold Panah kanan terlebih dahulu, lalu press &amp; hold Tombol A tanpa melepas Panah atas</t>
+  </si>
+  <si>
+    <t>Tombol A &amp; B, Panah Atas</t>
+  </si>
+  <si>
+    <t>press Tombol A &amp; B bersamaan, lalu press &amp; hold Panah Atas</t>
+  </si>
+  <si>
+    <t>senjata menembakkan peluru tunggal dan roket, tidak melakukan rotasi</t>
+  </si>
+  <si>
+    <t>Tombol A &amp; B, Panah Bawah</t>
+  </si>
+  <si>
+    <t>Tombol A &amp; B, Panah Kiri</t>
+  </si>
+  <si>
+    <t>Tombol A &amp; B, Panah Kanan</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>TC28</t>
   </si>
 </sst>
 </file>
@@ -956,7 +1242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -964,11 +1250,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -976,6 +1510,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -985,7 +1520,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1376,10 +1929,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -1491,10 +2044,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1690,10 +2243,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -1735,10 +2288,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -2730,9 +3283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3C6AC0-94CB-40A9-92A9-5C607BB8942F}">
   <dimension ref="A1:L425"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2792,7 +3345,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C2">
@@ -2818,7 +3371,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3">
         <v>2</v>
       </c>
@@ -2842,7 +3395,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4">
         <v>3</v>
       </c>
@@ -2866,7 +3419,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5">
         <v>4</v>
       </c>
@@ -2890,7 +3443,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6">
         <v>5</v>
       </c>
@@ -2914,7 +3467,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7">
         <v>6</v>
       </c>
@@ -2938,7 +3491,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8">
         <v>7</v>
       </c>
@@ -2962,7 +3515,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="C9">
         <v>8</v>
       </c>
@@ -2986,7 +3539,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
       <c r="C10">
         <v>9</v>
       </c>
@@ -3010,7 +3563,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11">
         <v>0</v>
       </c>
@@ -3034,7 +3587,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>160</v>
       </c>
       <c r="C12">
@@ -3060,7 +3613,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13">
         <v>11</v>
       </c>
@@ -3084,7 +3637,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14">
         <v>12</v>
       </c>
@@ -3108,7 +3661,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15">
         <v>13</v>
       </c>
@@ -3132,7 +3685,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="8"/>
       <c r="C16">
         <v>14</v>
       </c>
@@ -3156,7 +3709,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
       <c r="C17">
         <v>15</v>
       </c>
@@ -3180,7 +3733,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18">
         <v>16</v>
       </c>
@@ -3204,7 +3757,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19">
         <v>17</v>
       </c>
@@ -3228,7 +3781,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="8"/>
       <c r="C20">
         <v>18</v>
       </c>
@@ -3252,7 +3805,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="8"/>
       <c r="C21">
         <v>19</v>
       </c>
@@ -3276,7 +3829,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="8"/>
       <c r="C22">
         <v>20</v>
       </c>
@@ -3300,7 +3853,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="8"/>
       <c r="C23">
         <v>21</v>
       </c>
@@ -3324,7 +3877,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
       <c r="C24">
         <v>22</v>
       </c>
@@ -3348,7 +3901,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25">
         <v>23</v>
       </c>
@@ -3372,7 +3925,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
       <c r="C26">
         <v>24</v>
       </c>
@@ -3396,7 +3949,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="8"/>
       <c r="C27">
         <v>25</v>
       </c>
@@ -3420,7 +3973,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
       <c r="C28">
         <v>26</v>
       </c>
@@ -3444,7 +3997,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="8"/>
       <c r="C29">
         <v>27</v>
       </c>
@@ -3468,7 +4021,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="8"/>
       <c r="C30">
         <v>28</v>
       </c>
@@ -3492,7 +4045,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="8"/>
       <c r="C31">
         <v>29</v>
       </c>
@@ -3516,7 +4069,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="8"/>
       <c r="C32">
         <v>30</v>
       </c>
@@ -3540,7 +4093,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="8"/>
       <c r="C33">
         <v>31</v>
       </c>
@@ -3564,7 +4117,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="8"/>
       <c r="C34">
         <v>32</v>
       </c>
@@ -3588,7 +4141,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="8"/>
       <c r="C35">
         <v>33</v>
       </c>
@@ -3612,7 +4165,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="8"/>
       <c r="C36">
         <v>34</v>
       </c>
@@ -3636,7 +4189,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="8"/>
       <c r="C37">
         <v>35</v>
       </c>
@@ -3660,7 +4213,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="8"/>
       <c r="C38">
         <v>36</v>
       </c>
@@ -3684,7 +4237,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="8"/>
       <c r="C39">
         <v>37</v>
       </c>
@@ -3708,7 +4261,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="8"/>
       <c r="C40">
         <v>38</v>
       </c>
@@ -3732,7 +4285,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="8"/>
       <c r="C41">
         <v>39</v>
       </c>
@@ -3756,7 +4309,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="8"/>
       <c r="C42">
         <v>40</v>
       </c>
@@ -3780,7 +4333,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="8"/>
       <c r="C43">
         <v>41</v>
       </c>
@@ -3804,7 +4357,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="8"/>
       <c r="C44">
         <v>42</v>
       </c>
@@ -3828,7 +4381,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="8"/>
       <c r="C45">
         <v>43</v>
       </c>
@@ -3852,7 +4405,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="8"/>
       <c r="C46">
         <v>44</v>
       </c>
@@ -3876,7 +4429,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="8"/>
       <c r="C47">
         <v>45</v>
       </c>
@@ -3900,7 +4453,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="8"/>
       <c r="C48">
         <v>46</v>
       </c>
@@ -3924,7 +4477,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="8"/>
       <c r="C49">
         <v>47</v>
       </c>
@@ -3948,7 +4501,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="7"/>
+      <c r="B50" s="8"/>
       <c r="C50">
         <v>48</v>
       </c>
@@ -3972,7 +4525,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="7"/>
+      <c r="B51" s="8"/>
       <c r="C51">
         <v>49</v>
       </c>
@@ -3996,7 +4549,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="7"/>
+      <c r="B52" s="8"/>
       <c r="C52">
         <v>50</v>
       </c>
@@ -4020,7 +4573,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="7"/>
+      <c r="B53" s="8"/>
       <c r="C53">
         <v>51</v>
       </c>
@@ -4044,7 +4597,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="7"/>
+      <c r="B54" s="8"/>
       <c r="C54">
         <v>52</v>
       </c>
@@ -4068,7 +4621,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="7"/>
+      <c r="B55" s="8"/>
       <c r="C55">
         <v>53</v>
       </c>
@@ -4092,7 +4645,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="7"/>
+      <c r="B56" s="8"/>
       <c r="C56">
         <v>54</v>
       </c>
@@ -4116,7 +4669,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="7"/>
+      <c r="B57" s="8"/>
       <c r="C57">
         <v>55</v>
       </c>
@@ -4140,7 +4693,7 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="7"/>
+      <c r="B58" s="8"/>
       <c r="C58">
         <v>56</v>
       </c>
@@ -4164,7 +4717,7 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="7"/>
+      <c r="B59" s="8"/>
       <c r="C59">
         <v>57</v>
       </c>
@@ -4188,7 +4741,7 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="7"/>
+      <c r="B60" s="8"/>
       <c r="C60">
         <v>58</v>
       </c>
@@ -4212,7 +4765,7 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="7"/>
+      <c r="B61" s="8"/>
       <c r="C61">
         <v>59</v>
       </c>
@@ -4236,7 +4789,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="7"/>
+      <c r="B62" s="8"/>
       <c r="C62">
         <v>60</v>
       </c>
@@ -4260,7 +4813,7 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="7"/>
+      <c r="B63" s="8"/>
       <c r="C63">
         <v>61</v>
       </c>
@@ -4284,7 +4837,7 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="7"/>
+      <c r="B64" s="8"/>
       <c r="C64">
         <v>62</v>
       </c>
@@ -4308,7 +4861,7 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="7"/>
+      <c r="B65" s="8"/>
       <c r="C65">
         <v>63</v>
       </c>
@@ -4332,7 +4885,7 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="7"/>
+      <c r="B66" s="8"/>
       <c r="C66">
         <v>64</v>
       </c>
@@ -4356,7 +4909,7 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="7"/>
+      <c r="B67" s="8"/>
       <c r="C67">
         <v>65</v>
       </c>
@@ -4380,7 +4933,7 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="7"/>
+      <c r="B68" s="8"/>
       <c r="C68">
         <v>66</v>
       </c>
@@ -4404,7 +4957,7 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="7"/>
+      <c r="B69" s="8"/>
       <c r="C69">
         <v>67</v>
       </c>
@@ -4428,7 +4981,7 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="7"/>
+      <c r="B70" s="8"/>
       <c r="C70">
         <v>68</v>
       </c>
@@ -4452,7 +5005,7 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="7"/>
+      <c r="B71" s="8"/>
       <c r="C71">
         <v>69</v>
       </c>
@@ -4476,7 +5029,7 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="7"/>
+      <c r="B72" s="8"/>
       <c r="C72">
         <v>70</v>
       </c>
@@ -4500,7 +5053,7 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="7"/>
+      <c r="B73" s="8"/>
       <c r="C73">
         <v>71</v>
       </c>
@@ -4524,7 +5077,7 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="7"/>
+      <c r="B74" s="8"/>
       <c r="C74">
         <v>72</v>
       </c>
@@ -4548,7 +5101,7 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="7"/>
+      <c r="B75" s="8"/>
       <c r="C75">
         <v>73</v>
       </c>
@@ -4572,7 +5125,7 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="7"/>
+      <c r="B76" s="8"/>
       <c r="C76">
         <v>74</v>
       </c>
@@ -4596,7 +5149,7 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="7"/>
+      <c r="B77" s="8"/>
       <c r="C77">
         <v>75</v>
       </c>
@@ -4620,7 +5173,7 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="7"/>
+      <c r="B78" s="8"/>
       <c r="C78">
         <v>76</v>
       </c>
@@ -4644,7 +5197,7 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="7"/>
+      <c r="B79" s="8"/>
       <c r="C79">
         <v>77</v>
       </c>
@@ -4668,7 +5221,7 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="7"/>
+      <c r="B80" s="8"/>
       <c r="C80">
         <v>78</v>
       </c>
@@ -4692,7 +5245,7 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="7"/>
+      <c r="B81" s="8"/>
       <c r="C81">
         <v>79</v>
       </c>
@@ -4716,7 +5269,7 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="7"/>
+      <c r="B82" s="8"/>
       <c r="C82">
         <v>80</v>
       </c>
@@ -4740,7 +5293,7 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="7"/>
+      <c r="B83" s="8"/>
       <c r="C83">
         <v>81</v>
       </c>
@@ -4764,7 +5317,7 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="7"/>
+      <c r="B84" s="8"/>
       <c r="C84">
         <v>82</v>
       </c>
@@ -4788,7 +5341,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="7"/>
+      <c r="B85" s="8"/>
       <c r="C85">
         <v>83</v>
       </c>
@@ -4812,7 +5365,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="7"/>
+      <c r="B86" s="8"/>
       <c r="C86">
         <v>84</v>
       </c>
@@ -4836,7 +5389,7 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="7"/>
+      <c r="B87" s="8"/>
       <c r="C87">
         <v>85</v>
       </c>
@@ -4860,7 +5413,7 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="7"/>
+      <c r="B88" s="8"/>
       <c r="C88">
         <v>86</v>
       </c>
@@ -4884,7 +5437,7 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="7"/>
+      <c r="B89" s="8"/>
       <c r="C89">
         <v>87</v>
       </c>
@@ -4908,7 +5461,7 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="7"/>
+      <c r="B90" s="8"/>
       <c r="C90">
         <v>88</v>
       </c>
@@ -4932,7 +5485,7 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="7"/>
+      <c r="B91" s="8"/>
       <c r="C91">
         <v>89</v>
       </c>
@@ -4956,7 +5509,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="7"/>
+      <c r="B92" s="8"/>
       <c r="C92">
         <v>90</v>
       </c>
@@ -4980,7 +5533,7 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="7"/>
+      <c r="B93" s="8"/>
       <c r="C93">
         <v>91</v>
       </c>
@@ -5004,7 +5557,7 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="7"/>
+      <c r="B94" s="8"/>
       <c r="C94">
         <v>92</v>
       </c>
@@ -5028,7 +5581,7 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="7"/>
+      <c r="B95" s="8"/>
       <c r="C95">
         <v>93</v>
       </c>
@@ -5052,7 +5605,7 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="7"/>
+      <c r="B96" s="8"/>
       <c r="C96">
         <v>94</v>
       </c>
@@ -5076,7 +5629,7 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="7"/>
+      <c r="B97" s="8"/>
       <c r="C97">
         <v>95</v>
       </c>
@@ -5100,7 +5653,7 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="7"/>
+      <c r="B98" s="8"/>
       <c r="C98">
         <v>96</v>
       </c>
@@ -5124,7 +5677,7 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="7"/>
+      <c r="B99" s="8"/>
       <c r="C99">
         <v>97</v>
       </c>
@@ -5148,7 +5701,7 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="7"/>
+      <c r="B100" s="8"/>
       <c r="C100">
         <v>98</v>
       </c>
@@ -5172,7 +5725,7 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="7"/>
+      <c r="B101" s="8"/>
       <c r="C101">
         <v>99</v>
       </c>
@@ -5222,7 +5775,7 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="8" t="s">
         <v>215</v>
       </c>
       <c r="C103">
@@ -5248,7 +5801,7 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="7"/>
+      <c r="B104" s="8"/>
       <c r="C104">
         <v>9249</v>
       </c>
@@ -5272,7 +5825,7 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="7"/>
+      <c r="B105" s="8"/>
       <c r="C105">
         <v>9274</v>
       </c>
@@ -5296,7 +5849,7 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="7"/>
+      <c r="B106" s="8"/>
       <c r="C106">
         <v>8164</v>
       </c>
@@ -5849,7 +6402,7 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="8" t="s">
         <v>211</v>
       </c>
       <c r="C130" t="s">
@@ -5875,7 +6428,7 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="7"/>
+      <c r="B131" s="8"/>
       <c r="C131" t="s">
         <v>208</v>
       </c>
@@ -5899,7 +6452,7 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="7"/>
+      <c r="B132" s="8"/>
       <c r="C132" t="s">
         <v>212</v>
       </c>
@@ -5935,7 +6488,7 @@
       <c r="E133" t="s">
         <v>203</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F133" s="5" t="s">
         <v>229</v>
       </c>
       <c r="G133" t="s">
@@ -7415,4 +7968,772 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CEF7F4-F569-4992-BDFB-D9F3A980EA8C}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>